--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/TENNESSEE_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/TENNESSEE_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1272"/>
+  <dimension ref="A1:D1266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C34">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C67">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C70">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C79">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C80">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C114">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C122">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C124">
@@ -2211,7 +2211,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C140">
@@ -2372,7 +2372,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C169">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C181">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C185">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C190">
@@ -2941,12 +2941,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C195">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C199">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C204">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C211">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C216">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C220">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C230">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C238">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C247">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C257">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C262">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C263">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C264">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C275">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C283">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C293">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C299">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C301">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C303">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C308">
@@ -4492,7 +4492,7 @@
         <v>1000</v>
       </c>
       <c r="D313">
-        <v>0.09633911368015415</v>
+        <v>0.09633911368015416</v>
       </c>
     </row>
     <row r="314">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C314">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C317">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C323">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C327">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C335">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C344">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C346">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C349">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C361">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C363">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C367">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C371">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C386">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C391">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C395">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C398">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C401">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C410">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C414">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C417">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C421">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C427">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C428">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C429">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C435">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C437">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C442">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C448">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C451">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C456">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C461">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C471">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C475">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C480">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C483">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C484">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C489">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C492">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C502">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C505">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C508">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C510">
@@ -8015,7 +8015,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C583">
@@ -8293,7 +8293,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C604">
@@ -8410,7 +8410,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C613">
@@ -8462,7 +8462,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C617">
@@ -8475,7 +8475,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C618">
@@ -8610,7 +8610,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C628">
@@ -8636,7 +8636,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C630">
@@ -8714,7 +8714,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C636">
@@ -8823,7 +8823,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C644">
@@ -8992,7 +8992,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C657">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C660">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C665">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C668">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C675">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C678">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C682">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C685">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C690">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C693">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C700">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C703">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C710">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C722">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C750">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C758">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C760">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C770">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C790">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C796">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C821">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C834">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C835">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C836">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C840">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C842">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C844">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C854">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C869">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C873">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C878">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C883">
@@ -12083,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C894">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C895">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C899">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C904">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C907">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C910">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C916">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C927">
@@ -12543,7 +12543,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C929">
@@ -12608,7 +12608,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C934">
@@ -12621,7 +12621,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C935">
@@ -12647,7 +12647,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C937">
@@ -12686,7 +12686,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C940">
@@ -12839,7 +12839,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C951">
@@ -12917,7 +12917,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C957">
@@ -13034,7 +13034,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C966">
@@ -13112,7 +13112,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C972">
@@ -13190,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C978">
@@ -13216,7 +13216,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C980">
@@ -13333,7 +13333,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C989">
@@ -13346,7 +13346,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C990">
@@ -13359,7 +13359,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C991">
@@ -13372,7 +13372,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C992">
@@ -13385,7 +13385,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C993">
@@ -13398,7 +13398,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C994">
@@ -13707,7 +13707,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1017">
@@ -13868,7 +13868,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1029">
@@ -14263,7 +14263,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1059">
@@ -14450,7 +14450,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1073">
@@ -14463,7 +14463,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1074">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1089">
@@ -14702,7 +14702,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1092">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1100">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1102">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1107">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1119">
@@ -15261,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1135">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1136">
@@ -15313,7 +15313,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1139">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1146">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1150">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1153">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1155">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1159">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1164">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1168">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1172">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1178">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1181">
@@ -16210,7 +16210,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1208">
@@ -16347,7 +16347,7 @@
         <v>984</v>
       </c>
       <c r="D1218">
-        <v>0.09479768786127167</v>
+        <v>0.09479768786127168</v>
       </c>
     </row>
     <row r="1219">
@@ -16493,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1229">
@@ -16714,7 +16714,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1246">
@@ -16727,7 +16727,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1247">
@@ -16740,7 +16740,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1248">
@@ -16844,7 +16844,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1256">
@@ -16857,7 +16857,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1257">
@@ -16883,7 +16883,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1259">
@@ -16982,41 +16982,6 @@
       </c>
       <c r="D1266">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
